--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -52,6 +52,9 @@
     <t>2020-12-26</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -182,6 +185,12 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -542,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>96.29000000000001</v>
@@ -600,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>1.33</v>
@@ -617,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>88.43000000000001</v>
@@ -629,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -637,7 +646,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>72.29000000000001</v>
@@ -649,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -657,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>61.86</v>
@@ -669,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -677,7 +686,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>49.71</v>
@@ -689,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -697,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>60.29</v>
@@ -709,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>53.57</v>
@@ -729,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>67.86</v>
@@ -749,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>74.43000000000001</v>
@@ -769,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -789,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -797,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>122.43</v>
@@ -809,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -817,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>149.14</v>
@@ -829,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -837,7 +846,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>175.29</v>
@@ -849,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -857,7 +866,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -869,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -877,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>215</v>
@@ -889,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -897,7 +906,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>214</v>
@@ -909,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -917,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>183.14</v>
@@ -929,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -937,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>175.43</v>
@@ -949,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -957,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>144.29</v>
@@ -969,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -977,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>122.43</v>
@@ -989,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -997,7 +1006,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>113.57</v>
@@ -1009,7 +1018,7 @@
         <v>32.66</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1017,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>125</v>
@@ -1029,7 +1038,7 @@
         <v>38.51</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1037,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>155.57</v>
@@ -1049,7 +1058,7 @@
         <v>58.01</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1057,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>182.29</v>
@@ -1069,7 +1078,7 @@
         <v>83.87</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1077,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>193.14</v>
@@ -1089,7 +1098,7 @@
         <v>36.6</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1097,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>221</v>
@@ -1109,7 +1118,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1117,7 +1126,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>261.43</v>
@@ -1129,7 +1138,7 @@
         <v>107.46</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1137,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>313.86</v>
@@ -1149,7 +1158,7 @@
         <v>168.75</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1157,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>363.43</v>
@@ -1169,7 +1178,7 @@
         <v>202.01</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1177,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>424</v>
@@ -1189,7 +1198,7 @@
         <v>282.54</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1197,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>457.43</v>
@@ -1209,7 +1218,7 @@
         <v>317.91</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1217,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>470.43</v>
@@ -1229,7 +1238,7 @@
         <v>301.88</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1237,7 +1246,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>451.29</v>
@@ -1249,7 +1258,7 @@
         <v>303.19</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1257,7 +1266,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>361.43</v>
@@ -1269,7 +1278,7 @@
         <v>200.39</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1277,7 +1286,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>276.14</v>
@@ -1289,7 +1298,7 @@
         <v>111.24</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1297,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>214.14</v>
@@ -1309,7 +1318,7 @@
         <v>39.73</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1317,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>160.86</v>
@@ -1329,7 +1338,7 @@
         <v>28.59</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1337,7 +1346,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>123.43</v>
@@ -1349,7 +1358,7 @@
         <v>111.23</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J39">
         <v>111.23</v>
@@ -1363,13 +1372,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>94.56999999999999</v>
       </c>
       <c r="D40">
         <v>243.24</v>
       </c>
+      <c r="E40">
+        <v>148.66</v>
+      </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="J40">
+        <v>129.95</v>
+      </c>
+      <c r="K40">
+        <v>123.66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1377,13 +1398,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41">
         <v>260.26</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1391,13 +1412,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>255.92</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1405,13 +1426,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>269.68</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1419,13 +1440,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>245.76</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1433,13 +1454,120 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D45">
         <v>245.1</v>
       </c>
       <c r="F45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46">
+        <v>288.53</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46">
+        <v>1.03</v>
+      </c>
+      <c r="H46">
+        <v>137.71</v>
+      </c>
+      <c r="I46">
+        <v>130.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>307.04</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>317</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>240.89</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
         <v>56</v>
+      </c>
+      <c r="D50">
+        <v>254.57</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51">
+        <v>274.9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>273.24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>2021-01-09</t>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>96.29000000000001</v>
@@ -609,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>1.33</v>
@@ -626,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>88.43000000000001</v>
@@ -638,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,7 +649,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>72.29000000000001</v>
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>61.86</v>
@@ -678,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>49.71</v>
@@ -698,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>60.29</v>
@@ -718,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>53.57</v>
@@ -738,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>67.86</v>
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>74.43000000000001</v>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -806,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>122.43</v>
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -826,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>149.14</v>
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>175.29</v>
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -866,7 +869,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -878,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -886,7 +889,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>215</v>
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>214</v>
@@ -918,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,7 +929,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>183.14</v>
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>175.43</v>
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>144.29</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,7 +989,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>122.43</v>
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>113.57</v>
@@ -1018,7 +1021,7 @@
         <v>32.66</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,7 +1029,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>125</v>
@@ -1038,7 +1041,7 @@
         <v>38.51</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,7 +1049,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>155.57</v>
@@ -1058,7 +1061,7 @@
         <v>58.01</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>182.29</v>
@@ -1078,7 +1081,7 @@
         <v>83.87</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>193.14</v>
@@ -1098,7 +1101,7 @@
         <v>36.6</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,7 +1109,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>221</v>
@@ -1118,7 +1121,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,7 +1129,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>261.43</v>
@@ -1138,7 +1141,7 @@
         <v>107.46</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>313.86</v>
@@ -1158,7 +1161,7 @@
         <v>168.75</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>363.43</v>
@@ -1178,7 +1181,7 @@
         <v>202.01</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>424</v>
@@ -1198,7 +1201,7 @@
         <v>282.54</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>457.43</v>
@@ -1218,7 +1221,7 @@
         <v>317.91</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1226,7 +1229,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>470.43</v>
@@ -1238,7 +1241,7 @@
         <v>301.88</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1246,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>451.29</v>
@@ -1258,7 +1261,7 @@
         <v>303.19</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1266,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>361.43</v>
@@ -1278,7 +1281,7 @@
         <v>200.39</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1286,7 +1289,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>276.14</v>
@@ -1298,7 +1301,7 @@
         <v>111.24</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1306,7 +1309,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>214.14</v>
@@ -1318,7 +1321,7 @@
         <v>39.73</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1326,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>160.86</v>
@@ -1338,7 +1341,7 @@
         <v>28.59</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1346,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>123.43</v>
@@ -1358,7 +1361,7 @@
         <v>111.23</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J39">
         <v>111.23</v>
@@ -1372,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>94.56999999999999</v>
@@ -1384,7 +1387,7 @@
         <v>148.66</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J40">
         <v>129.95</v>
@@ -1398,13 +1401,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41">
         <v>260.26</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1412,13 +1415,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>255.92</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1426,13 +1429,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>269.68</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1440,13 +1443,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>245.76</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1454,13 +1457,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>245.1</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1470,20 +1473,32 @@
       <c r="B46" t="s">
         <v>52</v>
       </c>
+      <c r="C46">
+        <v>94.56999999999999</v>
+      </c>
       <c r="D46">
-        <v>288.53</v>
+        <v>226.44</v>
+      </c>
+      <c r="E46">
+        <v>131.87</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G46">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="H46">
-        <v>137.71</v>
+        <v>69.72</v>
       </c>
       <c r="I46">
-        <v>130.23</v>
+        <v>86.05</v>
+      </c>
+      <c r="J46">
+        <v>130.59</v>
+      </c>
+      <c r="K46">
+        <v>128.92</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1494,10 +1509,10 @@
         <v>53</v>
       </c>
       <c r="D47">
-        <v>307.04</v>
+        <v>246.14</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1508,13 +1523,13 @@
         <v>54</v>
       </c>
       <c r="D48">
-        <v>317</v>
+        <v>260.58</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1522,13 +1537,13 @@
         <v>55</v>
       </c>
       <c r="D49">
-        <v>240.89</v>
+        <v>262.97</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -1536,13 +1551,13 @@
         <v>56</v>
       </c>
       <c r="D50">
-        <v>254.57</v>
+        <v>254.31</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -1550,13 +1565,13 @@
         <v>57</v>
       </c>
       <c r="D51">
-        <v>274.9</v>
+        <v>247.89</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1564,10 +1579,117 @@
         <v>58</v>
       </c>
       <c r="D52">
+        <v>230.15</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>288.53</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53">
+        <v>1.03</v>
+      </c>
+      <c r="H53">
+        <v>137.71</v>
+      </c>
+      <c r="I53">
+        <v>130.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>307.04</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>317</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>240.89</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>254.57</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>274.9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59">
         <v>273.24</v>
       </c>
-      <c r="F52" t="s">
-        <v>59</v>
+      <c r="F59" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>96.29000000000001</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>1.33</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>88.43000000000001</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>72.29000000000001</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>61.86</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>49.71</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>60.29</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>53.57</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>67.86</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>74.43000000000001</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>122.43</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>149.14</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>175.29</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>215</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>214</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>183.14</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>175.43</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>144.29</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>122.43</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>113.57</v>
@@ -1021,7 +1027,7 @@
         <v>32.66</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>125</v>
@@ -1041,7 +1047,7 @@
         <v>38.51</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>155.57</v>
@@ -1061,7 +1067,7 @@
         <v>58.01</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>182.29</v>
@@ -1081,7 +1087,7 @@
         <v>83.87</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>193.14</v>
@@ -1101,7 +1107,7 @@
         <v>36.6</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>221</v>
@@ -1121,7 +1127,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>261.43</v>
@@ -1141,7 +1147,7 @@
         <v>107.46</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>313.86</v>
@@ -1161,7 +1167,7 @@
         <v>168.75</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>363.43</v>
@@ -1181,7 +1187,7 @@
         <v>202.01</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>424</v>
@@ -1201,7 +1207,7 @@
         <v>282.54</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>457.43</v>
@@ -1221,7 +1227,7 @@
         <v>317.91</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>470.43</v>
@@ -1241,7 +1247,7 @@
         <v>301.88</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>451.29</v>
@@ -1261,7 +1267,7 @@
         <v>303.19</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>361.43</v>
@@ -1281,7 +1287,7 @@
         <v>200.39</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>276.14</v>
@@ -1301,7 +1307,7 @@
         <v>111.24</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>214.14</v>
@@ -1321,7 +1327,7 @@
         <v>39.73</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>160.86</v>
@@ -1341,7 +1347,7 @@
         <v>28.59</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>123.43</v>
@@ -1361,7 +1367,7 @@
         <v>111.23</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J39">
         <v>111.23</v>
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
         <v>94.56999999999999</v>
@@ -1387,7 +1393,7 @@
         <v>148.66</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J40">
         <v>129.95</v>
@@ -1401,13 +1407,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C41">
+        <v>88.14</v>
       </c>
       <c r="D41">
         <v>260.26</v>
       </c>
+      <c r="E41">
+        <v>172.11</v>
+      </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="J41">
+        <v>144</v>
+      </c>
+      <c r="K41">
+        <v>147.53</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1415,13 +1433,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <v>255.92</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1429,13 +1447,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>269.68</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1443,13 +1461,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>245.76</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1457,13 +1475,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>245.1</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1471,7 +1489,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1483,7 +1501,7 @@
         <v>131.87</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G46">
         <v>1.23</v>
@@ -1495,10 +1513,10 @@
         <v>86.05</v>
       </c>
       <c r="J46">
-        <v>130.59</v>
+        <v>140.97</v>
       </c>
       <c r="K46">
-        <v>128.92</v>
+        <v>145.51</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1506,13 +1524,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C47">
+        <v>88.14</v>
       </c>
       <c r="D47">
         <v>246.14</v>
       </c>
+      <c r="E47">
+        <v>158</v>
+      </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="J47">
+        <v>144.38</v>
+      </c>
+      <c r="K47">
+        <v>152.25</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1520,83 +1550,89 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48">
         <v>260.58</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49">
         <v>262.97</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50">
         <v>254.31</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51">
         <v>247.89</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52">
         <v>230.15</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>88.14</v>
       </c>
       <c r="D53">
         <v>288.53</v>
       </c>
+      <c r="E53">
+        <v>200.39</v>
+      </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <v>1.03</v>
@@ -1607,89 +1643,202 @@
       <c r="I53">
         <v>130.23</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53">
+        <v>153.71</v>
+      </c>
+      <c r="K53">
+        <v>164.77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>307.04</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D55">
         <v>317</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>240.89</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>254.57</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>274.9</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>273.24</v>
       </c>
       <c r="F59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <v>298.35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60">
+        <v>0.98</v>
+      </c>
+      <c r="H60">
+        <v>193.15</v>
+      </c>
+      <c r="I60">
+        <v>170.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>302.99</v>
+      </c>
+      <c r="F61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <v>298.81</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63">
+        <v>274.32</v>
+      </c>
+      <c r="F63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64">
+        <v>267.11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
         <v>60</v>
+      </c>
+      <c r="D65">
+        <v>260.81</v>
+      </c>
+      <c r="F65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66">
+        <v>251.41</v>
+      </c>
+      <c r="F66" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>96.29000000000001</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1.33</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>88.43000000000001</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>72.29000000000001</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>61.86</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>49.71</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>60.29</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>53.57</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>67.86</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>74.43000000000001</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>122.43</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>149.14</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>175.29</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>215</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>214</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>183.14</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>175.43</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>144.29</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>122.43</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>113.57</v>
@@ -1027,7 +1033,7 @@
         <v>32.66</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>125</v>
@@ -1047,7 +1053,7 @@
         <v>38.51</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>155.57</v>
@@ -1067,7 +1073,7 @@
         <v>58.01</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>182.29</v>
@@ -1087,7 +1093,7 @@
         <v>83.87</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>193.14</v>
@@ -1107,7 +1113,7 @@
         <v>36.6</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>221</v>
@@ -1127,7 +1133,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>261.43</v>
@@ -1147,7 +1153,7 @@
         <v>107.46</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>313.86</v>
@@ -1167,7 +1173,7 @@
         <v>168.75</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>363.43</v>
@@ -1187,7 +1193,7 @@
         <v>202.01</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>424</v>
@@ -1207,7 +1213,7 @@
         <v>282.54</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>457.43</v>
@@ -1227,7 +1233,7 @@
         <v>317.91</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>470.43</v>
@@ -1247,7 +1253,7 @@
         <v>301.88</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>451.29</v>
@@ -1267,7 +1273,7 @@
         <v>303.19</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>361.43</v>
@@ -1287,7 +1293,7 @@
         <v>200.39</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>276.14</v>
@@ -1307,7 +1313,7 @@
         <v>111.24</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>214.14</v>
@@ -1327,7 +1333,7 @@
         <v>39.73</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>160.86</v>
@@ -1347,7 +1353,7 @@
         <v>28.59</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>123.43</v>
@@ -1367,7 +1373,7 @@
         <v>111.23</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J39">
         <v>111.23</v>
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>94.56999999999999</v>
@@ -1393,7 +1399,7 @@
         <v>148.66</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J40">
         <v>129.95</v>
@@ -1407,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>88.14</v>
@@ -1419,7 +1425,7 @@
         <v>172.11</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J41">
         <v>144</v>
@@ -1433,13 +1439,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C42">
+        <v>82.43000000000001</v>
       </c>
       <c r="D42">
         <v>255.92</v>
       </c>
+      <c r="E42">
+        <v>173.49</v>
+      </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J42">
+        <v>151.38</v>
+      </c>
+      <c r="K42">
+        <v>163.27</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1447,13 +1465,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>269.68</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1461,13 +1479,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>245.76</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1475,13 +1493,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45">
         <v>245.1</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1489,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1501,7 +1519,7 @@
         <v>131.87</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G46">
         <v>1.23</v>
@@ -1513,10 +1531,10 @@
         <v>86.05</v>
       </c>
       <c r="J46">
-        <v>140.97</v>
+        <v>147.47</v>
       </c>
       <c r="K46">
-        <v>145.51</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1524,7 +1542,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1536,13 +1554,13 @@
         <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J47">
-        <v>144.38</v>
+        <v>149.23</v>
       </c>
       <c r="K47">
-        <v>152.25</v>
+        <v>161.96</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1550,13 +1568,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C48">
+        <v>82.43000000000001</v>
       </c>
       <c r="D48">
         <v>260.58</v>
       </c>
+      <c r="E48">
+        <v>178.15</v>
+      </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J48">
+        <v>153.36</v>
+      </c>
+      <c r="K48">
+        <v>169.7</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1564,13 +1594,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>262.97</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1578,13 +1608,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50">
         <v>254.31</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1592,13 +1622,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>247.89</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1606,13 +1636,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>230.15</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1620,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>88.14</v>
@@ -1632,7 +1662,7 @@
         <v>200.39</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G53">
         <v>1.03</v>
@@ -1644,10 +1674,10 @@
         <v>130.23</v>
       </c>
       <c r="J53">
-        <v>153.71</v>
+        <v>159.24</v>
       </c>
       <c r="K53">
-        <v>164.77</v>
+        <v>176.9</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1655,13 +1685,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>82.43000000000001</v>
       </c>
       <c r="D54">
         <v>307.04</v>
       </c>
+      <c r="E54">
+        <v>224.61</v>
+      </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J54">
+        <v>166.5</v>
+      </c>
+      <c r="K54">
+        <v>187.52</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1669,13 +1711,13 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>317</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1683,13 +1725,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56">
         <v>240.89</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1697,13 +1739,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57">
         <v>254.57</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1711,13 +1753,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D58">
         <v>274.9</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1725,13 +1767,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59">
         <v>273.24</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1739,13 +1781,19 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C60">
+        <v>82.43000000000001</v>
       </c>
       <c r="D60">
         <v>298.35</v>
       </c>
+      <c r="E60">
+        <v>215.92</v>
+      </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G60">
         <v>0.98</v>
@@ -1755,6 +1803,12 @@
       </c>
       <c r="I60">
         <v>170.25</v>
+      </c>
+      <c r="J60">
+        <v>171.44</v>
+      </c>
+      <c r="K60">
+        <v>194.97</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1762,13 +1816,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>302.99</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1776,13 +1830,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>298.81</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1790,13 +1844,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>274.32</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1804,41 +1858,148 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <v>267.11</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D65">
         <v>260.81</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D66">
         <v>251.41</v>
       </c>
       <c r="F66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67">
+        <v>317</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+      <c r="G67">
+        <v>0.71</v>
+      </c>
+      <c r="H67">
+        <v>198.66</v>
+      </c>
+      <c r="I67">
+        <v>163.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68">
+        <v>240.89</v>
+      </c>
+      <c r="F68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69">
+        <v>254.57</v>
+      </c>
+      <c r="F69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70">
+        <v>274.9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71">
+        <v>273.24</v>
+      </c>
+      <c r="F71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
         <v>62</v>
+      </c>
+      <c r="D72">
+        <v>260.87</v>
+      </c>
+      <c r="F72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73">
+        <v>268.7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>96.29000000000001</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>1.33</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>88.43000000000001</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>72.29000000000001</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>61.86</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>49.71</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>60.29</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>53.57</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>67.86</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>74.43000000000001</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>122.43</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>149.14</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>175.29</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>215</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>214</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>183.14</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>175.43</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>144.29</v>
@@ -993,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>122.43</v>
@@ -1013,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>113.57</v>
@@ -1033,7 +1039,7 @@
         <v>32.66</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>125</v>
@@ -1053,7 +1059,7 @@
         <v>38.51</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>155.57</v>
@@ -1073,7 +1079,7 @@
         <v>58.01</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>182.29</v>
@@ -1093,7 +1099,7 @@
         <v>83.87</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>193.14</v>
@@ -1113,7 +1119,7 @@
         <v>36.6</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>221</v>
@@ -1133,7 +1139,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>261.43</v>
@@ -1153,7 +1159,7 @@
         <v>107.46</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>313.86</v>
@@ -1173,7 +1179,7 @@
         <v>168.75</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>363.43</v>
@@ -1193,7 +1199,7 @@
         <v>202.01</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>424</v>
@@ -1213,7 +1219,7 @@
         <v>282.54</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>457.43</v>
@@ -1233,7 +1239,7 @@
         <v>317.91</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>470.43</v>
@@ -1253,7 +1259,7 @@
         <v>301.88</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>451.29</v>
@@ -1273,7 +1279,7 @@
         <v>303.19</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>361.43</v>
@@ -1293,7 +1299,7 @@
         <v>200.39</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>276.14</v>
@@ -1313,7 +1319,7 @@
         <v>111.24</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>214.14</v>
@@ -1333,7 +1339,7 @@
         <v>39.73</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>160.86</v>
@@ -1353,7 +1359,7 @@
         <v>28.59</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>123.43</v>
@@ -1373,7 +1379,7 @@
         <v>111.23</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J39">
         <v>111.23</v>
@@ -1387,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>94.56999999999999</v>
@@ -1399,7 +1405,7 @@
         <v>148.66</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J40">
         <v>129.95</v>
@@ -1413,7 +1419,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>88.14</v>
@@ -1425,7 +1431,7 @@
         <v>172.11</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J41">
         <v>144</v>
@@ -1439,7 +1445,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>82.43000000000001</v>
@@ -1451,7 +1457,7 @@
         <v>173.49</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J42">
         <v>151.38</v>
@@ -1465,13 +1471,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C43">
+        <v>85</v>
       </c>
       <c r="D43">
         <v>269.68</v>
       </c>
+      <c r="E43">
+        <v>184.68</v>
+      </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J43">
+        <v>158.04</v>
+      </c>
+      <c r="K43">
+        <v>174.07</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1479,13 +1497,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44">
         <v>245.76</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1493,13 +1511,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>245.1</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1507,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1519,7 +1537,7 @@
         <v>131.87</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G46">
         <v>1.23</v>
@@ -1531,10 +1549,10 @@
         <v>86.05</v>
       </c>
       <c r="J46">
-        <v>147.47</v>
+        <v>153.68</v>
       </c>
       <c r="K46">
-        <v>158.5</v>
+        <v>168.3</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1542,7 +1560,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1554,13 +1572,13 @@
         <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J47">
-        <v>149.23</v>
+        <v>154.29</v>
       </c>
       <c r="K47">
-        <v>161.96</v>
+        <v>169.86</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1568,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>82.43000000000001</v>
@@ -1580,13 +1598,13 @@
         <v>178.15</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J48">
-        <v>153.36</v>
+        <v>157.28</v>
       </c>
       <c r="K48">
-        <v>169.7</v>
+        <v>175.64</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1594,13 +1612,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>85</v>
       </c>
       <c r="D49">
         <v>262.97</v>
       </c>
+      <c r="E49">
+        <v>177.97</v>
+      </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J49">
+        <v>159.57</v>
+      </c>
+      <c r="K49">
+        <v>179.39</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1608,13 +1638,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50">
         <v>254.31</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1622,13 +1652,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D51">
         <v>247.89</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1636,13 +1666,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52">
         <v>230.15</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1650,7 +1680,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>88.14</v>
@@ -1662,7 +1692,7 @@
         <v>200.39</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G53">
         <v>1.03</v>
@@ -1674,10 +1704,10 @@
         <v>130.23</v>
       </c>
       <c r="J53">
-        <v>159.24</v>
+        <v>163.66</v>
       </c>
       <c r="K53">
-        <v>176.9</v>
+        <v>184.19</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1685,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>82.43000000000001</v>
@@ -1697,13 +1727,13 @@
         <v>224.61</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J54">
-        <v>166.5</v>
+        <v>169.2</v>
       </c>
       <c r="K54">
-        <v>187.52</v>
+        <v>192.21</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1711,13 +1741,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>85</v>
       </c>
       <c r="D55">
         <v>317</v>
       </c>
+      <c r="E55">
+        <v>232</v>
+      </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J55">
+        <v>174.43</v>
+      </c>
+      <c r="K55">
+        <v>198.94</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1725,13 +1767,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56">
         <v>240.89</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1739,13 +1781,13 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>254.57</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1753,13 +1795,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58">
         <v>274.9</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1767,13 +1809,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>273.24</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1781,7 +1823,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1793,7 +1835,7 @@
         <v>215.92</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G60">
         <v>0.98</v>
@@ -1805,10 +1847,10 @@
         <v>170.25</v>
       </c>
       <c r="J60">
-        <v>171.44</v>
+        <v>177.62</v>
       </c>
       <c r="K60">
-        <v>194.97</v>
+        <v>203.79</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1816,13 +1858,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <v>85</v>
       </c>
       <c r="D61">
         <v>302.99</v>
       </c>
+      <c r="E61">
+        <v>217.99</v>
+      </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J61">
+        <v>180.51</v>
+      </c>
+      <c r="K61">
+        <v>207.55</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1830,13 +1884,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>298.81</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1844,13 +1898,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>274.32</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1858,55 +1912,61 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D64">
         <v>267.11</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D65">
         <v>260.81</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D66">
         <v>251.41</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C67">
+        <v>85</v>
       </c>
       <c r="D67">
         <v>317</v>
       </c>
+      <c r="E67">
+        <v>232</v>
+      </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G67">
         <v>0.71</v>
@@ -1917,89 +1977,202 @@
       <c r="I67">
         <v>163.75</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67">
+        <v>183.94</v>
+      </c>
+      <c r="K67">
+        <v>211.91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <v>240.89</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>254.57</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>274.9</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>273.24</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <v>260.87</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D73">
         <v>268.7</v>
       </c>
       <c r="F73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74">
+        <v>240.89</v>
+      </c>
+      <c r="F74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74">
+        <v>0.58</v>
+      </c>
+      <c r="H74">
+        <v>188.54</v>
+      </c>
+      <c r="I74">
+        <v>160.26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75">
+        <v>254.57</v>
+      </c>
+      <c r="F75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76">
+        <v>274.9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77">
+        <v>273.24</v>
+      </c>
+      <c r="F77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78">
+        <v>260.87</v>
+      </c>
+      <c r="F78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
         <v>64</v>
+      </c>
+      <c r="D79">
+        <v>268.7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D80">
+        <v>251.58</v>
+      </c>
+      <c r="F80" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,12 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -212,6 +218,12 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>96.29000000000001</v>
@@ -630,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>1.33</v>
@@ -647,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>88.43000000000001</v>
@@ -659,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>72.29000000000001</v>
@@ -679,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>61.86</v>
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>49.71</v>
@@ -719,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>60.29</v>
@@ -739,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>53.57</v>
@@ -759,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>67.86</v>
@@ -779,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>74.43000000000001</v>
@@ -799,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -819,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>122.43</v>
@@ -839,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>149.14</v>
@@ -859,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>175.29</v>
@@ -879,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -899,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>215</v>
@@ -919,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>214</v>
@@ -939,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>183.14</v>
@@ -959,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>175.43</v>
@@ -979,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>144.29</v>
@@ -999,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>122.43</v>
@@ -1019,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>113.57</v>
@@ -1039,7 +1051,7 @@
         <v>32.66</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>125</v>
@@ -1059,7 +1071,7 @@
         <v>38.51</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>155.57</v>
@@ -1079,7 +1091,7 @@
         <v>58.01</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>182.29</v>
@@ -1099,7 +1111,7 @@
         <v>83.87</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>193.14</v>
@@ -1119,7 +1131,7 @@
         <v>36.6</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>221</v>
@@ -1139,7 +1151,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>261.43</v>
@@ -1159,7 +1171,7 @@
         <v>107.46</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>313.86</v>
@@ -1179,7 +1191,7 @@
         <v>168.75</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>363.43</v>
@@ -1199,7 +1211,7 @@
         <v>202.01</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>424</v>
@@ -1219,7 +1231,7 @@
         <v>282.54</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>457.43</v>
@@ -1239,7 +1251,7 @@
         <v>317.91</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>470.43</v>
@@ -1259,7 +1271,7 @@
         <v>301.88</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>451.29</v>
@@ -1279,7 +1291,7 @@
         <v>303.19</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>361.43</v>
@@ -1299,7 +1311,7 @@
         <v>200.39</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>276.14</v>
@@ -1319,7 +1331,7 @@
         <v>111.24</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>214.14</v>
@@ -1339,7 +1351,7 @@
         <v>39.73</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>160.86</v>
@@ -1359,7 +1371,7 @@
         <v>28.59</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>123.43</v>
@@ -1379,7 +1391,7 @@
         <v>111.23</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J39">
         <v>111.23</v>
@@ -1393,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>94.56999999999999</v>
@@ -1405,7 +1417,7 @@
         <v>148.66</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J40">
         <v>129.95</v>
@@ -1419,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>88.14</v>
@@ -1431,7 +1443,7 @@
         <v>172.11</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J41">
         <v>144</v>
@@ -1445,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>82.43000000000001</v>
@@ -1457,7 +1469,7 @@
         <v>173.49</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J42">
         <v>151.38</v>
@@ -1471,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>85</v>
@@ -1483,7 +1495,7 @@
         <v>184.68</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J43">
         <v>158.04</v>
@@ -1497,13 +1509,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>74.70999999999999</v>
       </c>
       <c r="D44">
         <v>245.76</v>
       </c>
+      <c r="E44">
+        <v>171.05</v>
+      </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J44">
+        <v>160.21</v>
+      </c>
+      <c r="K44">
+        <v>183.21</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1511,13 +1535,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>67.29000000000001</v>
       </c>
       <c r="D45">
         <v>245.1</v>
       </c>
+      <c r="E45">
+        <v>177.82</v>
+      </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J45">
+        <v>162.72</v>
+      </c>
+      <c r="K45">
+        <v>194.79</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1525,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1537,7 +1573,7 @@
         <v>131.87</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G46">
         <v>1.23</v>
@@ -1549,10 +1585,10 @@
         <v>86.05</v>
       </c>
       <c r="J46">
-        <v>153.68</v>
+        <v>158.87</v>
       </c>
       <c r="K46">
-        <v>168.3</v>
+        <v>187.87</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1560,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1572,13 +1608,13 @@
         <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J47">
-        <v>154.29</v>
+        <v>158.77</v>
       </c>
       <c r="K47">
-        <v>169.86</v>
+        <v>186.91</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1586,7 +1622,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>82.43000000000001</v>
@@ -1598,13 +1634,13 @@
         <v>178.15</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J48">
-        <v>157.28</v>
+        <v>160.71</v>
       </c>
       <c r="K48">
-        <v>175.64</v>
+        <v>189.84</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1612,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>85</v>
@@ -1624,13 +1660,13 @@
         <v>177.97</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J49">
-        <v>159.57</v>
+        <v>162.28</v>
       </c>
       <c r="K49">
-        <v>179.39</v>
+        <v>191.61</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1638,13 +1674,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>74.70999999999999</v>
       </c>
       <c r="D50">
         <v>254.31</v>
       </c>
+      <c r="E50">
+        <v>179.6</v>
+      </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J50">
+        <v>163.72</v>
+      </c>
+      <c r="K50">
+        <v>195.68</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1652,13 +1700,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>67.29000000000001</v>
       </c>
       <c r="D51">
         <v>247.89</v>
       </c>
+      <c r="E51">
+        <v>180.6</v>
+      </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J51">
+        <v>165.02</v>
+      </c>
+      <c r="K51">
+        <v>201.27</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1666,13 +1726,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D52">
         <v>230.15</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1680,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>88.14</v>
@@ -1692,7 +1752,7 @@
         <v>200.39</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G53">
         <v>1.03</v>
@@ -1704,10 +1764,10 @@
         <v>130.23</v>
       </c>
       <c r="J53">
-        <v>163.66</v>
+        <v>167.54</v>
       </c>
       <c r="K53">
-        <v>184.19</v>
+        <v>203.13</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1715,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>82.43000000000001</v>
@@ -1727,13 +1787,13 @@
         <v>224.61</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J54">
-        <v>169.2</v>
+        <v>171.35</v>
       </c>
       <c r="K54">
-        <v>192.21</v>
+        <v>207.76</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1741,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55">
         <v>85</v>
@@ -1753,13 +1813,13 @@
         <v>232</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J55">
-        <v>174.43</v>
+        <v>175.14</v>
       </c>
       <c r="K55">
-        <v>198.94</v>
+        <v>211.83</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1767,13 +1827,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>74.70999999999999</v>
       </c>
       <c r="D56">
         <v>240.89</v>
       </c>
+      <c r="E56">
+        <v>166.18</v>
+      </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J56">
+        <v>174.61</v>
+      </c>
+      <c r="K56">
+        <v>212.45</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1781,13 +1853,25 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>67.29000000000001</v>
       </c>
       <c r="D57">
         <v>254.57</v>
       </c>
+      <c r="E57">
+        <v>187.28</v>
+      </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J57">
+        <v>175.32</v>
+      </c>
+      <c r="K57">
+        <v>216.11</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1795,13 +1879,13 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D58">
         <v>274.9</v>
       </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1809,13 +1893,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D59">
         <v>273.24</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1823,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1835,7 +1919,7 @@
         <v>215.92</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G60">
         <v>0.98</v>
@@ -1847,10 +1931,10 @@
         <v>170.25</v>
       </c>
       <c r="J60">
-        <v>177.62</v>
+        <v>177.45</v>
       </c>
       <c r="K60">
-        <v>203.79</v>
+        <v>218.53</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1858,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C61">
         <v>85</v>
@@ -1870,13 +1954,13 @@
         <v>217.99</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J61">
-        <v>180.51</v>
+        <v>179.48</v>
       </c>
       <c r="K61">
-        <v>207.55</v>
+        <v>220.42</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1884,13 +1968,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>74.70999999999999</v>
       </c>
       <c r="D62">
         <v>298.81</v>
       </c>
+      <c r="E62">
+        <v>224.1</v>
+      </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J62">
+        <v>181.6</v>
+      </c>
+      <c r="K62">
+        <v>224.21</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1898,13 +1994,25 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>67.29000000000001</v>
       </c>
       <c r="D63">
         <v>274.32</v>
       </c>
+      <c r="E63">
+        <v>207.04</v>
+      </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J63">
+        <v>182.76</v>
+      </c>
+      <c r="K63">
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1912,13 +2020,13 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D64">
         <v>267.11</v>
       </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1926,13 +2034,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D65">
         <v>260.81</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1940,13 +2048,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>251.41</v>
       </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1954,7 +2062,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>85</v>
@@ -1966,7 +2074,7 @@
         <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G67">
         <v>0.71</v>
@@ -1978,10 +2086,10 @@
         <v>163.75</v>
       </c>
       <c r="J67">
-        <v>183.94</v>
+        <v>184.9</v>
       </c>
       <c r="K67">
-        <v>211.91</v>
+        <v>229.96</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1989,13 +2097,25 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>74.70999999999999</v>
       </c>
       <c r="D68">
         <v>240.89</v>
       </c>
+      <c r="E68">
+        <v>166.18</v>
+      </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J68">
+        <v>184.12</v>
+      </c>
+      <c r="K68">
+        <v>229.64</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2003,13 +2123,25 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C69">
+        <v>67.29000000000001</v>
       </c>
       <c r="D69">
         <v>254.57</v>
       </c>
+      <c r="E69">
+        <v>187.28</v>
+      </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J69">
+        <v>184.25</v>
+      </c>
+      <c r="K69">
+        <v>231.59</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2017,13 +2149,13 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>274.9</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2031,13 +2163,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D71">
         <v>273.24</v>
       </c>
       <c r="F71" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2045,13 +2177,13 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D72">
         <v>260.87</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2059,13 +2191,13 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D73">
         <v>268.7</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2073,13 +2205,19 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="C74">
+        <v>74.70999999999999</v>
       </c>
       <c r="D74">
         <v>240.89</v>
       </c>
+      <c r="E74">
+        <v>166.18</v>
+      </c>
       <c r="F74" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G74">
         <v>0.58</v>
@@ -2089,6 +2227,12 @@
       </c>
       <c r="I74">
         <v>160.26</v>
+      </c>
+      <c r="J74">
+        <v>183.55</v>
+      </c>
+      <c r="K74">
+        <v>231.24</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2096,13 +2240,25 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <v>67.29000000000001</v>
       </c>
       <c r="D75">
         <v>254.57</v>
       </c>
+      <c r="E75">
+        <v>187.28</v>
+      </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>70</v>
+      </c>
+      <c r="J75">
+        <v>183.69</v>
+      </c>
+      <c r="K75">
+        <v>232.98</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2110,13 +2266,13 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D76">
         <v>274.9</v>
       </c>
       <c r="F76" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2124,13 +2280,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D77">
         <v>273.24</v>
       </c>
       <c r="F77" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2138,13 +2294,13 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D78">
         <v>260.87</v>
       </c>
       <c r="F78" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2152,13 +2308,13 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D79">
         <v>268.7</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2166,13 +2322,239 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D80">
         <v>251.58</v>
       </c>
       <c r="F80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="D81">
+        <v>254.57</v>
+      </c>
+      <c r="E81">
+        <v>187.28</v>
+      </c>
+      <c r="F81" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81">
+        <v>0.45</v>
+      </c>
+      <c r="H81">
+        <v>210.11</v>
+      </c>
+      <c r="I81">
+        <v>156.98</v>
+      </c>
+      <c r="J81">
+        <v>183.82</v>
+      </c>
+      <c r="K81">
+        <v>234.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82">
+        <v>274.9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83">
+        <v>273.24</v>
+      </c>
+      <c r="F83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84">
+        <v>260.87</v>
+      </c>
+      <c r="F84" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
         <v>66</v>
+      </c>
+      <c r="D85">
+        <v>268.7</v>
+      </c>
+      <c r="F85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86">
+        <v>251.58</v>
+      </c>
+      <c r="F86" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <v>175.02</v>
+      </c>
+      <c r="F87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88">
+        <v>267.11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88">
+        <v>0.55</v>
+      </c>
+      <c r="H88">
+        <v>321.58</v>
+      </c>
+      <c r="I88">
+        <v>216.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89">
+        <v>260.81</v>
+      </c>
+      <c r="F89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90">
+        <v>251.41</v>
+      </c>
+      <c r="F90" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91">
+        <v>234.27</v>
+      </c>
+      <c r="F91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92">
+        <v>230.03</v>
+      </c>
+      <c r="F92" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93">
+        <v>210.7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94">
+        <v>173.05</v>
+      </c>
+      <c r="F94" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/iran/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="73">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
   </si>
   <si>
     <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>96.29000000000001</v>
@@ -642,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>1.33</v>
@@ -659,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>88.43000000000001</v>
@@ -671,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -679,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>72.29000000000001</v>
@@ -691,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -699,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>61.86</v>
@@ -711,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -719,7 +725,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>49.71</v>
@@ -731,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>60.29</v>
@@ -751,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -759,7 +765,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>53.57</v>
@@ -771,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -779,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>67.86</v>
@@ -791,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -799,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>74.43000000000001</v>
@@ -811,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -819,7 +825,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>111</v>
@@ -831,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -839,7 +845,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>122.43</v>
@@ -851,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>149.14</v>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -879,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>175.29</v>
@@ -891,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>192</v>
@@ -911,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -919,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>215</v>
@@ -931,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -939,7 +945,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>214</v>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -959,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>183.14</v>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -979,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>175.43</v>
@@ -991,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -999,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>144.29</v>
@@ -1011,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1019,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>122.43</v>
@@ -1031,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1039,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>113.57</v>
@@ -1051,7 +1057,7 @@
         <v>32.66</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1059,7 +1065,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>125</v>
@@ -1071,7 +1077,7 @@
         <v>38.51</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1079,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>155.57</v>
@@ -1091,7 +1097,7 @@
         <v>58.01</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1099,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>182.29</v>
@@ -1111,7 +1117,7 @@
         <v>83.87</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1119,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>193.14</v>
@@ -1131,7 +1137,7 @@
         <v>36.6</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1139,7 +1145,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>221</v>
@@ -1151,7 +1157,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1159,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>261.43</v>
@@ -1171,7 +1177,7 @@
         <v>107.46</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1179,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>313.86</v>
@@ -1191,7 +1197,7 @@
         <v>168.75</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1199,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>363.43</v>
@@ -1211,7 +1217,7 @@
         <v>202.01</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1219,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>424</v>
@@ -1231,7 +1237,7 @@
         <v>282.54</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1239,7 +1245,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>457.43</v>
@@ -1251,7 +1257,7 @@
         <v>317.91</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1259,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>470.43</v>
@@ -1271,7 +1277,7 @@
         <v>301.88</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1279,7 +1285,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>451.29</v>
@@ -1291,7 +1297,7 @@
         <v>303.19</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1299,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>361.43</v>
@@ -1311,7 +1317,7 @@
         <v>200.39</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1319,7 +1325,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>276.14</v>
@@ -1331,7 +1337,7 @@
         <v>111.24</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1339,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>214.14</v>
@@ -1351,7 +1357,7 @@
         <v>39.73</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1359,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>160.86</v>
@@ -1371,7 +1377,7 @@
         <v>28.59</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1379,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>123.43</v>
@@ -1391,7 +1397,7 @@
         <v>111.23</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J39">
         <v>111.23</v>
@@ -1405,7 +1411,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>94.56999999999999</v>
@@ -1417,7 +1423,7 @@
         <v>148.66</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J40">
         <v>129.95</v>
@@ -1431,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>88.14</v>
@@ -1443,7 +1449,7 @@
         <v>172.11</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J41">
         <v>144</v>
@@ -1457,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>82.43000000000001</v>
@@ -1469,7 +1475,7 @@
         <v>173.49</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J42">
         <v>151.38</v>
@@ -1483,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>85</v>
@@ -1495,7 +1501,7 @@
         <v>184.68</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J43">
         <v>158.04</v>
@@ -1509,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>74.70999999999999</v>
@@ -1521,7 +1527,7 @@
         <v>171.05</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J44">
         <v>160.21</v>
@@ -1535,7 +1541,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>67.29000000000001</v>
@@ -1547,7 +1553,7 @@
         <v>177.82</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J45">
         <v>162.72</v>
@@ -1561,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>94.56999999999999</v>
@@ -1573,7 +1579,7 @@
         <v>131.87</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G46">
         <v>1.23</v>
@@ -1596,7 +1602,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>88.14</v>
@@ -1608,7 +1614,7 @@
         <v>158</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J47">
         <v>158.77</v>
@@ -1622,7 +1628,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>82.43000000000001</v>
@@ -1634,7 +1640,7 @@
         <v>178.15</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J48">
         <v>160.71</v>
@@ -1648,7 +1654,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>85</v>
@@ -1660,7 +1666,7 @@
         <v>177.97</v>
       </c>
       <c r="F49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J49">
         <v>162.28</v>
@@ -1674,7 +1680,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>74.70999999999999</v>
@@ -1686,7 +1692,7 @@
         <v>179.6</v>
       </c>
       <c r="F50" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J50">
         <v>163.72</v>
@@ -1700,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>67.29000000000001</v>
@@ -1712,7 +1718,7 @@
         <v>180.6</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J51">
         <v>165.02</v>
@@ -1726,13 +1732,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C52">
+        <v>75.14</v>
       </c>
       <c r="D52">
         <v>230.15</v>
       </c>
+      <c r="E52">
+        <v>155.01</v>
+      </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="J52">
+        <v>164.3</v>
+      </c>
+      <c r="K52">
+        <v>201.63</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1740,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>88.14</v>
@@ -1752,7 +1770,7 @@
         <v>200.39</v>
       </c>
       <c r="F53" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G53">
         <v>1.03</v>
@@ -1764,10 +1782,10 @@
         <v>130.23</v>
       </c>
       <c r="J53">
-        <v>167.54</v>
+        <v>166.71</v>
       </c>
       <c r="K53">
-        <v>203.13</v>
+        <v>203.34</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1775,7 +1793,7 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54">
         <v>82.43000000000001</v>
@@ -1787,13 +1805,13 @@
         <v>224.61</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J54">
-        <v>171.35</v>
+        <v>170.33</v>
       </c>
       <c r="K54">
-        <v>207.76</v>
+        <v>207.67</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1801,7 +1819,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55">
         <v>85</v>
@@ -1813,13 +1831,13 @@
         <v>232</v>
       </c>
       <c r="F55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J55">
-        <v>175.14</v>
+        <v>173.96</v>
       </c>
       <c r="K55">
-        <v>211.83</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1827,7 +1845,7 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56">
         <v>74.70999999999999</v>
@@ -1839,13 +1857,13 @@
         <v>166.18</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J56">
-        <v>174.61</v>
+        <v>173.52</v>
       </c>
       <c r="K56">
-        <v>212.45</v>
+        <v>212.11</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1853,7 +1871,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57">
         <v>67.29000000000001</v>
@@ -1865,13 +1883,13 @@
         <v>187.28</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J57">
-        <v>175.32</v>
+        <v>174.25</v>
       </c>
       <c r="K57">
-        <v>216.11</v>
+        <v>215.6</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1879,13 +1897,25 @@
         <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>75.14</v>
       </c>
       <c r="D58">
         <v>274.9</v>
       </c>
+      <c r="E58">
+        <v>199.76</v>
+      </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="J58">
+        <v>175.52</v>
+      </c>
+      <c r="K58">
+        <v>218.11</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1893,13 +1923,13 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D59">
         <v>273.24</v>
       </c>
       <c r="F59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1907,7 +1937,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>82.43000000000001</v>
@@ -1919,7 +1949,7 @@
         <v>215.92</v>
       </c>
       <c r="F60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G60">
         <v>0.98</v>
@@ -1934,7 +1964,7 @@
         <v>177.45</v>
       </c>
       <c r="K60">
-        <v>218.53</v>
+        <v>220.2</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1942,7 +1972,7 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61">
         <v>85</v>
@@ -1954,13 +1984,13 @@
         <v>217.99</v>
       </c>
       <c r="F61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J61">
-        <v>179.48</v>
+        <v>179.29</v>
       </c>
       <c r="K61">
-        <v>220.42</v>
+        <v>221.84</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1968,7 +1998,7 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62">
         <v>74.70999999999999</v>
@@ -1980,13 +2010,13 @@
         <v>224.1</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J62">
-        <v>181.6</v>
+        <v>181.24</v>
       </c>
       <c r="K62">
-        <v>224.21</v>
+        <v>225.24</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1994,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C63">
         <v>67.29000000000001</v>
@@ -2006,13 +2036,13 @@
         <v>207.04</v>
       </c>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J63">
-        <v>182.76</v>
+        <v>182.31</v>
       </c>
       <c r="K63">
-        <v>228</v>
+        <v>228.68</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2020,13 +2050,25 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>75.14</v>
       </c>
       <c r="D64">
         <v>267.11</v>
       </c>
+      <c r="E64">
+        <v>191.97</v>
+      </c>
       <c r="F64" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="J64">
+        <v>182.7</v>
+      </c>
+      <c r="K64">
+        <v>229.75</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2034,13 +2076,13 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D65">
         <v>260.81</v>
       </c>
       <c r="F65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2048,13 +2090,13 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <v>251.41</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2062,7 +2104,7 @@
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67">
         <v>85</v>
@@ -2074,7 +2116,7 @@
         <v>232</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G67">
         <v>0.71</v>
@@ -2086,10 +2128,10 @@
         <v>163.75</v>
       </c>
       <c r="J67">
-        <v>184.9</v>
+        <v>184.59</v>
       </c>
       <c r="K67">
-        <v>229.96</v>
+        <v>231.41</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2097,7 +2139,7 @@
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C68">
         <v>74.70999999999999</v>
@@ -2109,13 +2151,13 @@
         <v>166.18</v>
       </c>
       <c r="F68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J68">
-        <v>184.12</v>
+        <v>183.91</v>
       </c>
       <c r="K68">
-        <v>229.64</v>
+        <v>231.08</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2123,7 +2165,7 @@
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69">
         <v>67.29000000000001</v>
@@ -2135,13 +2177,13 @@
         <v>187.28</v>
       </c>
       <c r="F69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J69">
-        <v>184.25</v>
+        <v>184.03</v>
       </c>
       <c r="K69">
-        <v>231.59</v>
+        <v>232.76</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2149,13 +2191,25 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>75.14</v>
       </c>
       <c r="D70">
         <v>274.9</v>
       </c>
+      <c r="E70">
+        <v>199.76</v>
+      </c>
       <c r="F70" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="J70">
+        <v>184.58</v>
+      </c>
+      <c r="K70">
+        <v>233.9</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2163,13 +2217,13 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71">
         <v>273.24</v>
       </c>
       <c r="F71" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2177,13 +2231,13 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72">
         <v>260.87</v>
       </c>
       <c r="F72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2191,13 +2245,13 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D73">
         <v>268.7</v>
       </c>
       <c r="F73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2205,7 +2259,7 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74">
         <v>74.70999999999999</v>
@@ -2217,7 +2271,7 @@
         <v>166.18</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G74">
         <v>0.58</v>
@@ -2229,10 +2283,10 @@
         <v>160.26</v>
       </c>
       <c r="J74">
-        <v>183.55</v>
+        <v>183.96</v>
       </c>
       <c r="K74">
-        <v>231.24</v>
+        <v>233.52</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2240,7 +2294,7 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C75">
         <v>67.29000000000001</v>
@@ -2252,13 +2306,13 @@
         <v>187.28</v>
       </c>
       <c r="F75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J75">
-        <v>183.69</v>
+        <v>184.07</v>
       </c>
       <c r="K75">
-        <v>232.98</v>
+        <v>234.97</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2266,13 +2320,25 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C76">
+        <v>75.14</v>
       </c>
       <c r="D76">
         <v>274.9</v>
       </c>
+      <c r="E76">
+        <v>199.76</v>
+      </c>
       <c r="F76" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="J76">
+        <v>184.56</v>
+      </c>
+      <c r="K76">
+        <v>235.93</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2280,13 +2346,13 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D77">
         <v>273.24</v>
       </c>
       <c r="F77" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2294,13 +2360,13 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D78">
         <v>260.87</v>
       </c>
       <c r="F78" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2308,13 +2374,13 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D79">
         <v>268.7</v>
       </c>
       <c r="F79" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2322,13 +2388,13 @@
         <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D80">
         <v>251.58</v>
       </c>
       <c r="F80" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2336,7 +2402,7 @@
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C81">
         <v>67.29000000000001</v>
@@ -2348,7 +2414,7 @@
         <v>187.28</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G81">
         <v>0.45</v>
@@ -2360,10 +2426,10 @@
         <v>156.98</v>
       </c>
       <c r="J81">
-        <v>183.82</v>
+        <v>184.64</v>
       </c>
       <c r="K81">
-        <v>234.6</v>
+        <v>237.22</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2371,13 +2437,25 @@
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C82">
+        <v>75.14</v>
       </c>
       <c r="D82">
         <v>274.9</v>
       </c>
+      <c r="E82">
+        <v>199.76</v>
+      </c>
       <c r="F82" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="J82">
+        <v>185.09</v>
+      </c>
+      <c r="K82">
+        <v>238.06</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2385,13 +2463,13 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D83">
         <v>273.24</v>
       </c>
       <c r="F83" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2399,13 +2477,13 @@
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D84">
         <v>260.87</v>
       </c>
       <c r="F84" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2413,13 +2491,13 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D85">
         <v>268.7</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2427,13 +2505,13 @@
         <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D86">
         <v>251.58</v>
       </c>
       <c r="F86" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2441,13 +2519,13 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D87">
         <v>175.02</v>
       </c>
       <c r="F87" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2455,13 +2533,19 @@
         <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C88">
+        <v>75.14</v>
       </c>
       <c r="D88">
         <v>267.11</v>
       </c>
+      <c r="E88">
+        <v>191.97</v>
+      </c>
       <c r="F88" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G88">
         <v>0.55</v>
@@ -2471,6 +2555,12 @@
       </c>
       <c r="I88">
         <v>216.38</v>
+      </c>
+      <c r="J88">
+        <v>185.28</v>
+      </c>
+      <c r="K88">
+        <v>238.56</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2478,13 +2568,13 @@
         <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D89">
         <v>260.81</v>
       </c>
       <c r="F89" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2492,13 +2582,13 @@
         <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D90">
         <v>251.41</v>
       </c>
       <c r="F90" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2506,13 +2596,13 @@
         <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D91">
         <v>234.27</v>
       </c>
       <c r="F91" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2520,13 +2610,13 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D92">
         <v>230.03</v>
       </c>
       <c r="F92" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2534,13 +2624,13 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D93">
         <v>210.7</v>
       </c>
       <c r="F93" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2548,13 +2638,120 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D94">
         <v>173.05</v>
       </c>
       <c r="F94" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>19</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95">
+        <v>123.06</v>
+      </c>
+      <c r="F95" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95">
+        <v>0.37</v>
+      </c>
+      <c r="H95">
+        <v>196.88</v>
+      </c>
+      <c r="I95">
+        <v>147.94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96">
+        <v>90.27</v>
+      </c>
+      <c r="F96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97">
+        <v>145.37</v>
+      </c>
+      <c r="F97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98">
+        <v>135.25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99">
+        <v>193.56</v>
+      </c>
+      <c r="F99" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" t="s">
         <v>70</v>
+      </c>
+      <c r="D100">
+        <v>152.09</v>
+      </c>
+      <c r="F100" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>19</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101">
+        <v>177.55</v>
+      </c>
+      <c r="F101" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
